--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_23.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_23.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N617"/>
+  <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6721642017364502</v>
+        <v>0.001212120056152344</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007671833038330078</v>
+        <v>0.001458168029785156</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0160057544708252</v>
+        <v>0.03871607780456543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (2, 2), (2, 0), (2, 4), (1, 4), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [4, 1], [3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [2, 2], [2, 0], [2, 4], [1, 4], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 3), (4, 4), (4, 2), (4, 3), (2, 3), (3, 4), (0, 4), (1, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [4, 1], [3, 3], [4, 4], [4, 2], [4, 3], [2, 3], [3, 4], [0, 4], [1, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 1), (4, 4), (4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 0], [4, 1], [3, 1], [4, 4], [4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>[(4, 0), (0, 3), (3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[4, 0], [0, 3], [3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 2), (4, 4), (3, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 4), (2, 4), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1)]</t>
+          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 4], [2, 4], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (0, 3), (3, 0), (4, 0)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [0, 3], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (2, 4), (0, 4), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (3, 3), (3, 0), (4, 0)]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[(1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (3, 4), (2, 1), (2, 4), (2, 2), (3, 2), (4, 4), (3, 0), (4, 1), (3, 1), (3, 3), (2, 0), (4, 0)]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 1], [2, 4], [2, 2], [3, 2], [4, 4], [3, 0], [4, 1], [3, 1], [3, 3], [2, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (3, 0), (2, 3), (3, 3), (3, 4), (4, 3), (4, 1), (4, 4), (2, 4), (3, 2), (2, 1), (0, 4), (2, 0), (1, 4), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 1], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -5194,110 +5194,120 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>85</v>
+        <v>0.9947053978784974</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>509</v>
+        <v>85</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>9</v>
+        <v>509</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0.736732006072998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.1310839653015137</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B617" t="inlineStr">
+      <c r="B618" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C617" t="inlineStr">
+      <c r="C618" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D617" t="inlineStr">
+      <c r="D618" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E617" t="inlineStr">
+      <c r="E618" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F617" t="inlineStr">
+      <c r="F618" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
+      <c r="G618" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
+      <c r="H618" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I617" t="inlineStr">
+      <c r="I618" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J617" t="inlineStr">
+      <c r="J618" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K617" t="inlineStr">
+      <c r="K618" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L617" t="inlineStr">
+      <c r="L618" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M617" t="inlineStr">
+      <c r="M618" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N617" t="inlineStr">
+      <c r="N618" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_23.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_23.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N618"/>
+  <dimension ref="A1:N628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001212120056152344</v>
+        <v>0.00051116943359375</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001458168029785156</v>
+        <v>0.000225067138671875</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03871607780456543</v>
+        <v>0.05566191673278809</v>
       </c>
     </row>
     <row r="8">
@@ -1831,11 +1831,6 @@
           <t>[14, 13]</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>[20, 5]</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1878,11 +1873,6 @@
           <t>[20, 7]</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>[14, 11]</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1897,11 +1887,6 @@
           <t>[22, 5]</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1909,11 +1894,6 @@
           <t>[14, 13]</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>[20, 5]</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1956,11 +1936,6 @@
           <t>[20, 7]</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>[14, 11]</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -1975,929 +1950,934 @@
           <t>[22, 5]</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[14, 12]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[14, 12]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[13, 12]</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[13, 12]</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>[19, 5]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[14, 10]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[13, 11]</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>[19, 5]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[14, 10]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[13, 11]</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[21, [3, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>[7, [2, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>[20, [4, 4], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>[12, [0, 2], [0, 0]]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[10, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>[6, [3, 3], [2, 3]]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[8, [2, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>[19, [3, 4], [4, 3]]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[1, [0, 3], [4, 1]]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[17, [2, 2], [2, 4]]</t>
+          <t>[21, [3, 2], [3, 0]]</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[13, [0, 1], [1, 1]]</t>
+          <t>[7, [2, 4], [1, 2]]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[4, [4, 2], [3, 4]]</t>
+          <t>[20, [4, 4], [4, 2]]</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[22, [4, 1], [3, 1]]</t>
+          <t>[12, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[5, [4, 3], [1, 3]]</t>
+          <t>[10, [2, 0], [0, 2]]</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[11, [1, 0], [0, 1]]</t>
+          <t>[6, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[3, [3, 0], [4, 4]]</t>
+          <t>[8, [2, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[19, [3, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[18, [1, 3], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>[14, [0, 0], [2, 1]]</t>
+          <t>[1, [0, 3], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [1, 4]]</t>
+          <t>[17, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[13, [0, 1], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>[4, [4, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[22, [4, 1], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[15, [1, 1], [2, 2]]</t>
+          <t>[5, [4, 3], [1, 3]]</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[2, [3, 1], [3, 2]]</t>
+          <t>[11, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[9, [1, 2], [1, 0]]</t>
+          <t>[3, [3, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 4], [2, 4], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1]]</t>
+          <t>[18, [1, 3], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[14, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>[19, 4]</t>
+          <t>[16, [2, 1], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
+          <t>[15, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>[2, [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[9, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 4], [2, 4], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[12, 11]</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>[12, 11]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[12, 11]</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>[19, 3]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[12, 10]</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>[19, 3]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[12, 10]</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
+          <t>[12, 9]</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
           <t>[17, 4]</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
+          <t>[12, 9]</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
           <t>[17, 4]</t>
         </is>
       </c>
@@ -2905,641 +2885,616 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>[16, 4]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[12, 8]</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>[16, 4]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[12, 8]</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[12, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>[16, [1, 4], [4, 4]]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[14, [2, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>[9, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>[1, [4, 1], [4, 3]]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[18, [3, 3], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>[7, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>[17, [2, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>[10, [0, 2], [0, 0]]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[0, [4, 0], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>[15, [2, 2], [3, 4]]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[3, [4, 4], [2, 4]]</t>
+          <t>[12, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[11, [0, 1], [1, 1]]</t>
+          <t>[16, [1, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[8, [2, 0], [0, 2]]</t>
+          <t>[14, [2, 1], [1, 3]]</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[4, [3, 4], [2, 3]]</t>
+          <t>[9, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>[1, [4, 1], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[20, [4, 2], [0, 3]]</t>
+          <t>[18, [3, 3], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>[7, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>[17, [2, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>[10, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[22, [3, 1], [4, 0]]</t>
+          <t>[0, [4, 0], [4, 2]]</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[5, [1, 3], [1, 2]]</t>
+          <t>[15, [2, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[6, [2, 3], [2, 0]]</t>
+          <t>[3, [4, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>[11, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
+          <t>[8, [2, 0], [0, 2]]</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[2, [3, 2], [3, 3]]</t>
+          <t>[4, [3, 4], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[19, [4, 3], [3, 1]]</t>
+          <t>[20, [4, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [0, 3], [3, 0], [4, 0]]</t>
+          <t>[22, [3, 1], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[5, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
+          <t>[6, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[2, [3, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[19, [4, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [0, 3], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
@@ -3588,278 +3543,278 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>[15, 1]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[1, [4, 3], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>[6, [2, 0], [0, 2]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[0, [4, 2], [1, 4]]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[7, [1, 0], [0, 1]]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>[9, [0, 1], [1, 1]]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [0, 3]]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[4, [2, 3], [2, 0]]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[20, [0, 3], [3, 3]]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[5, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>[2, [3, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>[8, [0, 2], [0, 0]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[14, [1, 3], [0, 4]]</t>
+          <t>[1, [4, 3], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>[6, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[3, [2, 4], [1, 2]]</t>
+          <t>[0, [4, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>[7, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
+          <t>[13, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [3, 0], [4, 0]]</t>
+          <t>[10, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[12, [2, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[4, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[20, [0, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[5, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>[2, [3, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>[8, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[14, [1, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[3, [2, 4], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 3], [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -3918,723 +3873,718 @@
           <t>[15, 0]</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>[14, [0, 4], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>[17, [3, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>[15, [3, 4], [3, 2]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>[21, [3, 0], [2, 0]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[2, [2, 3], [0, 2]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[11, [2, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 0]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>[4, [2, 0], [1, 0]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [2, 3]]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [1, 3]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[3, [1, 2], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>[6, [0, 2], [0, 1]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[1, [1, 3], [0, 3]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 1], [2, 4], [2, 2], [3, 2], [4, 4], [3, 0], [4, 1], [3, 1], [3, 3], [2, 0], [4, 0]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[12, [0, 3], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>[14, [0, 4], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>[17, [3, 2], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>[15, [3, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[7, [0, 1], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>[21, [3, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[2, [2, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[11, [2, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[9, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>[4, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[10, [2, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[8, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[3, [1, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>[6, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[1, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 1], [2, 4], [2, 2], [3, 2], [4, 4], [3, 0], [4, 1], [3, 1], [3, 3], [2, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[10, 12]</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[9, 13]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[10, 12]</t>
         </is>
       </c>
     </row>
@@ -4648,666 +4598,736 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>[8, 14]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[21, [2, 0], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>[14, [2, 2], [2, 4]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>[11, [3, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [0, 2]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[5, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>[13, [2, 4], [4, 4]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[19, [3, 1], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>[22, [4, 0], [3, 1]]</t>
+          <t>[9, 13]</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>[9, [0, 4], [3, 3]]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[18, [4, 1], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>[16, [4, 4], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>[0, [1, 4], [1, 1]]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[20, [3, 3], [0, 3]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[17, [3, 0], [0, 4]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[8, [1, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>[6, [0, 1], [1, 0]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>[3, [1, 1], [1, 2]]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>[4, [1, 0], [0, 0]]</t>
+          <t>[21, [2, 0], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>[14, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[2, [0, 2], [0, 1]]</t>
+          <t>[7, [1, 2], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>[11, [3, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 1], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
+          <t>[5, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>[13, [2, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[19, [3, 1], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>[22, [4, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[12, [2, 1], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>[9, [0, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[18, [4, 1], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>[16, [4, 4], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>[0, [1, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>[8, 14]</t>
+          <t>[20, [3, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>[7, 15]</t>
+          <t>[17, [3, 0], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[8, [1, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>[6, [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[10, [2, 3], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>[3, [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[4, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[2, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 3], [4, 1], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>[7, 15]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>[6, 16]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[7, 15]</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[6, 16]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>[5, 17]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 15]</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 16]</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>[5, 17]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>[4, 18]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[6, 16]</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[5, 17]</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>[4, 18]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[3, 19]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[5, 17]</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[3, 19]</t>
+          <t>[4, 18]</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>[2, 20]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>[2, 20]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[1, 21]</t>
+          <t>[4, 18]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>[0, 22]</t>
+          <t>[3, 19]</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[1, 21]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[0, 22]</t>
+          <t>[3, 19]</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B611" t="n">
-        <v>0.05928799266035487</v>
+          <t>[2, 20]</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B612" t="n">
-        <v>185382.6528587801</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B613" t="n">
-        <v>0.9947053978784974</v>
+          <t>[20, 2]</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B614" t="n">
-        <v>85</v>
+          <t>[2, 20]</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B615" t="n">
-        <v>509</v>
+          <t>[1, 21]</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B616" t="n">
-        <v>9</v>
+          <t>[0, 22]</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B617" t="n">
-        <v>0.1310839653015137</v>
+          <t>[21, 1]</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>[22, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>[1, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>[0, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.05928617452312487</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>185428.6528587801</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.9947053978784974</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.1141440868377686</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
+      <c r="B628" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C618" t="inlineStr">
+      <c r="C628" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D628" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr">
+      <c r="E628" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F618" t="inlineStr">
+      <c r="F628" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G618" t="inlineStr">
+      <c r="G628" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
+      <c r="H628" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I618" t="inlineStr">
+      <c r="I628" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J618" t="inlineStr">
+      <c r="J628" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K618" t="inlineStr">
+      <c r="K628" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L618" t="inlineStr">
+      <c r="L628" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M618" t="inlineStr">
+      <c r="M628" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N618" t="inlineStr">
+      <c r="N628" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
